--- a/Регистраторы/График проверки регистраторов в авто.xlsx
+++ b/Регистраторы/График проверки регистраторов в авто.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="37">
   <si>
     <t>АК 4711-5</t>
   </si>
@@ -123,13 +123,13 @@
     <t>График проверки регистраторов</t>
   </si>
   <si>
-    <t>*МАЗ-251050</t>
-  </si>
-  <si>
     <t>тр</t>
   </si>
   <si>
     <t>бв</t>
+  </si>
+  <si>
+    <t>МАЗ-251050</t>
   </si>
 </sst>
 </file>
@@ -242,9 +242,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -264,6 +261,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -560,10 +560,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AI23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -576,43 +577,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="18.75">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="7"/>
-      <c r="AI1" s="7"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="14"/>
+      <c r="AI1" s="14"/>
     </row>
     <row r="2" spans="1:35" ht="18.75">
       <c r="A2" s="6"/>
@@ -651,491 +652,491 @@
       <c r="AH2" s="6"/>
       <c r="AI2" s="6"/>
     </row>
-    <row r="3" spans="1:35" s="4" customFormat="1">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:35" s="4" customFormat="1" hidden="1">
+      <c r="A3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>1</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>2</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>3</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>4</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>5</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <v>6</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="8">
         <v>7</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="8">
         <v>8</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="8">
         <v>9</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="8">
         <v>10</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="8">
         <v>11</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="8">
         <v>12</v>
       </c>
-      <c r="P3" s="9">
+      <c r="P3" s="8">
         <v>13</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="Q3" s="8">
         <v>14</v>
       </c>
-      <c r="R3" s="9">
+      <c r="R3" s="8">
         <v>15</v>
       </c>
-      <c r="S3" s="9">
+      <c r="S3" s="8">
         <v>16</v>
       </c>
-      <c r="T3" s="9">
+      <c r="T3" s="8">
         <v>17</v>
       </c>
-      <c r="U3" s="9">
+      <c r="U3" s="8">
         <v>18</v>
       </c>
-      <c r="V3" s="9">
+      <c r="V3" s="8">
         <v>19</v>
       </c>
-      <c r="W3" s="9">
+      <c r="W3" s="8">
         <v>20</v>
       </c>
-      <c r="X3" s="9">
+      <c r="X3" s="8">
         <v>21</v>
       </c>
-      <c r="Y3" s="9">
+      <c r="Y3" s="8">
         <v>22</v>
       </c>
-      <c r="Z3" s="9">
+      <c r="Z3" s="8">
         <v>23</v>
       </c>
-      <c r="AA3" s="9">
+      <c r="AA3" s="8">
         <v>24</v>
       </c>
-      <c r="AB3" s="9">
+      <c r="AB3" s="8">
         <v>25</v>
       </c>
-      <c r="AC3" s="9">
+      <c r="AC3" s="8">
         <v>26</v>
       </c>
-      <c r="AD3" s="9">
+      <c r="AD3" s="8">
         <v>27</v>
       </c>
-      <c r="AE3" s="9">
+      <c r="AE3" s="8">
         <v>28</v>
       </c>
-      <c r="AF3" s="9">
+      <c r="AF3" s="8">
         <v>29</v>
       </c>
-      <c r="AG3" s="9">
+      <c r="AG3" s="8">
         <v>30</v>
       </c>
-      <c r="AH3" s="9">
+      <c r="AH3" s="8">
         <v>31</v>
       </c>
-      <c r="AI3" s="9" t="s">
+      <c r="AI3" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
-      <c r="A4" s="11">
+    <row r="4" spans="1:35" hidden="1">
+      <c r="A4" s="10">
         <v>4711</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AD4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AE4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI4" s="10">
+        <v>34</v>
+      </c>
+      <c r="AI4" s="9">
         <f>COUNTIF(D4:AH4,"П")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
-      <c r="A5" s="11">
+    <row r="5" spans="1:35" hidden="1">
+      <c r="A5" s="10">
         <v>4253</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AD5" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AE5" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AF5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AG5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AH5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI5" s="10">
+        <v>34</v>
+      </c>
+      <c r="AI5" s="9">
         <f t="shared" ref="AI5:AI20" si="0">COUNTIF(D5:AH5,"П")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
-      <c r="A6" s="11">
+    <row r="6" spans="1:35" hidden="1">
+      <c r="A6" s="10">
         <v>8933</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AC6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AD6" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AE6" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AG6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AH6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI6" s="10">
+        <v>34</v>
+      </c>
+      <c r="AI6" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:35">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>6172</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="9"/>
-      <c r="AE7" s="9"/>
-      <c r="AF7" s="9"/>
-      <c r="AG7" s="9"/>
-      <c r="AH7" s="9"/>
-      <c r="AI7" s="10">
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35">
-      <c r="A8" s="11">
+    <row r="8" spans="1:35" hidden="1">
+      <c r="A8" s="10">
         <v>4994</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="3"/>
@@ -1145,7 +1146,9 @@
       <c r="H8" s="3"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="3"/>
+      <c r="K8" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -1169,19 +1172,19 @@
       <c r="AF8" s="3"/>
       <c r="AG8" s="3"/>
       <c r="AH8" s="3"/>
-      <c r="AI8" s="10">
+      <c r="AI8" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:35">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <v>4995</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="3"/>
@@ -1215,19 +1218,19 @@
       <c r="AF9" s="3"/>
       <c r="AG9" s="3"/>
       <c r="AH9" s="3"/>
-      <c r="AI9" s="10">
+      <c r="AI9" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35">
-      <c r="A10" s="11">
+    <row r="10" spans="1:35" hidden="1">
+      <c r="A10" s="10">
         <v>6130</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="3"/>
@@ -1263,19 +1266,19 @@
       <c r="AF10" s="3"/>
       <c r="AG10" s="3"/>
       <c r="AH10" s="3"/>
-      <c r="AI10" s="10">
+      <c r="AI10" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:35">
-      <c r="A11" s="11">
+    <row r="11" spans="1:35" hidden="1">
+      <c r="A11" s="10">
         <v>6129</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="3"/>
@@ -1285,7 +1288,9 @@
       <c r="H11" s="3"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="3"/>
+      <c r="K11" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
@@ -1309,19 +1314,19 @@
       <c r="AF11" s="3"/>
       <c r="AG11" s="3"/>
       <c r="AH11" s="3"/>
-      <c r="AI11" s="10">
+      <c r="AI11" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:35">
-      <c r="A12" s="11">
+      <c r="A12" s="10">
         <v>2831</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="13" t="s">
+      <c r="B12" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="3"/>
@@ -1355,86 +1360,150 @@
       <c r="AF12" s="3"/>
       <c r="AG12" s="3"/>
       <c r="AH12" s="3"/>
-      <c r="AI12" s="10">
+      <c r="AI12" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35">
-      <c r="A13" s="11">
+    <row r="13" spans="1:35" hidden="1">
+      <c r="A13" s="10">
         <v>7945</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="13" t="s">
+      <c r="B13" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="5"/>
-      <c r="AE13" s="5"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
-      <c r="AH13" s="3"/>
-      <c r="AI13" s="10">
+      <c r="D13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="W13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="X13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI13" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35">
-      <c r="A14" s="11">
+    <row r="14" spans="1:35" hidden="1">
+      <c r="A14" s="10">
         <v>2961</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="F14" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="L14" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -1457,46 +1526,48 @@
       <c r="AF14" s="3"/>
       <c r="AG14" s="3"/>
       <c r="AH14" s="3"/>
-      <c r="AI14" s="10">
+      <c r="AI14" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35">
-      <c r="A15" s="11">
+    <row r="15" spans="1:35" hidden="1">
+      <c r="A15" s="10">
         <v>2962</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L15" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
@@ -1519,37 +1590,37 @@
       <c r="AF15" s="3"/>
       <c r="AG15" s="3"/>
       <c r="AH15" s="3"/>
-      <c r="AI15" s="10">
+      <c r="AI15" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:35">
-      <c r="A16" s="11">
+      <c r="A16" s="10">
         <v>2963</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -1575,19 +1646,19 @@
       <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
-      <c r="AI16" s="10">
+      <c r="AI16" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35">
-      <c r="A17" s="11">
+    <row r="17" spans="1:35" hidden="1">
+      <c r="A17" s="10">
         <v>4309</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="3"/>
@@ -1598,9 +1669,11 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L17" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
@@ -1623,19 +1696,19 @@
       <c r="AF17" s="3"/>
       <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
-      <c r="AI17" s="10">
+      <c r="AI17" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:35">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="3"/>
@@ -1646,7 +1719,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
@@ -1671,19 +1744,19 @@
       <c r="AF18" s="3"/>
       <c r="AG18" s="3"/>
       <c r="AH18" s="3"/>
-      <c r="AI18" s="10">
+      <c r="AI18" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:35">
-      <c r="A19" s="14" t="s">
+    <row r="19" spans="1:35" hidden="1">
+      <c r="A19" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="3"/>
@@ -1719,42 +1792,44 @@
       <c r="AF19" s="3"/>
       <c r="AG19" s="3"/>
       <c r="AH19" s="3"/>
-      <c r="AI19" s="10">
+      <c r="AI19" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:35">
-      <c r="A20" s="11">
+    <row r="20" spans="1:35" hidden="1">
+      <c r="A20" s="10">
         <v>1276</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L20" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
@@ -1777,7 +1852,7 @@
       <c r="AF20" s="3"/>
       <c r="AG20" s="3"/>
       <c r="AH20" s="3"/>
-      <c r="AI20" s="10">
+      <c r="AI20" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1805,7 +1880,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AI20"/>
+  <autoFilter ref="A2:AI20">
+    <filterColumn colId="11">
+      <filters blank="1"/>
+    </filterColumn>
+    <filterColumn colId="34">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:AI1"/>
   </mergeCells>

--- a/Регистраторы/График проверки регистраторов в авто.xlsx
+++ b/Регистраторы/График проверки регистраторов в авто.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="39">
   <si>
     <t>АК 4711-5</t>
   </si>
@@ -130,6 +130,12 @@
   </si>
   <si>
     <t>МАЗ-251050</t>
+  </si>
+  <si>
+    <t>*МАЗ-251050</t>
+  </si>
+  <si>
+    <t>*МАЗ-241030</t>
   </si>
 </sst>
 </file>
@@ -560,11 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AI23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -652,7 +657,7 @@
       <c r="AH2" s="6"/>
       <c r="AI2" s="6"/>
     </row>
-    <row r="3" spans="1:35" s="4" customFormat="1" hidden="1">
+    <row r="3" spans="1:35" s="4" customFormat="1">
       <c r="A3" s="7" t="s">
         <v>26</v>
       </c>
@@ -759,7 +764,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:35" hidden="1">
+    <row r="4" spans="1:35">
       <c r="A4" s="10">
         <v>4711</v>
       </c>
@@ -867,7 +872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" hidden="1">
+    <row r="5" spans="1:35">
       <c r="A5" s="10">
         <v>4253</v>
       </c>
@@ -975,7 +980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" hidden="1">
+    <row r="6" spans="1:35">
       <c r="A6" s="10">
         <v>8933</v>
       </c>
@@ -1129,7 +1134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" hidden="1">
+    <row r="8" spans="1:35">
       <c r="A8" s="10">
         <v>4994</v>
       </c>
@@ -1182,7 +1187,7 @@
         <v>4995</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>8</v>
@@ -1196,7 +1201,9 @@
       <c r="J9" s="5"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
+      <c r="M9" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="5"/>
@@ -1220,10 +1227,10 @@
       <c r="AH9" s="3"/>
       <c r="AI9" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" hidden="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35">
       <c r="A10" s="10">
         <v>6130</v>
       </c>
@@ -1271,7 +1278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:35" hidden="1">
+    <row r="11" spans="1:35">
       <c r="A11" s="10">
         <v>6129</v>
       </c>
@@ -1324,7 +1331,7 @@
         <v>2831</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>11</v>
@@ -1365,7 +1372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" hidden="1">
+    <row r="13" spans="1:35">
       <c r="A13" s="10">
         <v>7945</v>
       </c>
@@ -1473,7 +1480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" hidden="1">
+    <row r="14" spans="1:35">
       <c r="A14" s="10">
         <v>2961</v>
       </c>
@@ -1531,7 +1538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" hidden="1">
+    <row r="15" spans="1:35">
       <c r="A15" s="10">
         <v>2962</v>
       </c>
@@ -1651,7 +1658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" hidden="1">
+    <row r="17" spans="1:35">
       <c r="A17" s="10">
         <v>4309</v>
       </c>
@@ -1749,7 +1756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:35" hidden="1">
+    <row r="19" spans="1:35">
       <c r="A19" s="13" t="s">
         <v>22</v>
       </c>
@@ -1797,7 +1804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:35" hidden="1">
+    <row r="20" spans="1:35">
       <c r="A20" s="10">
         <v>1276</v>
       </c>
@@ -1881,12 +1888,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:AI20">
-    <filterColumn colId="11">
-      <filters blank="1"/>
-    </filterColumn>
-    <filterColumn colId="34">
-      <filters blank="1"/>
-    </filterColumn>
+    <filterColumn colId="11"/>
+    <filterColumn colId="34"/>
   </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:AI1"/>

--- a/Регистраторы/График проверки регистраторов в авто.xlsx
+++ b/Регистраторы/График проверки регистраторов в авто.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="39">
   <si>
     <t>АК 4711-5</t>
   </si>
@@ -566,10 +566,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AI23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -657,7 +658,7 @@
       <c r="AH2" s="6"/>
       <c r="AI2" s="6"/>
     </row>
-    <row r="3" spans="1:35" s="4" customFormat="1">
+    <row r="3" spans="1:35" s="4" customFormat="1" hidden="1">
       <c r="A3" s="7" t="s">
         <v>26</v>
       </c>
@@ -764,7 +765,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:35" hidden="1">
       <c r="A4" s="10">
         <v>4711</v>
       </c>
@@ -872,7 +873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:35" hidden="1">
       <c r="A5" s="10">
         <v>4253</v>
       </c>
@@ -980,7 +981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:35" hidden="1">
       <c r="A6" s="10">
         <v>8933</v>
       </c>
@@ -1134,7 +1135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:35" hidden="1">
       <c r="A8" s="10">
         <v>4994</v>
       </c>
@@ -1182,7 +1183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:35">
+    <row r="9" spans="1:35" hidden="1">
       <c r="A9" s="10">
         <v>4995</v>
       </c>
@@ -1230,7 +1231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:35">
+    <row r="10" spans="1:35" hidden="1">
       <c r="A10" s="10">
         <v>6130</v>
       </c>
@@ -1278,7 +1279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:35">
+    <row r="11" spans="1:35" hidden="1">
       <c r="A11" s="10">
         <v>6129</v>
       </c>
@@ -1372,7 +1373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35">
+    <row r="13" spans="1:35" hidden="1">
       <c r="A13" s="10">
         <v>7945</v>
       </c>
@@ -1480,7 +1481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35">
+    <row r="14" spans="1:35" hidden="1">
       <c r="A14" s="10">
         <v>2961</v>
       </c>
@@ -1511,7 +1512,9 @@
       <c r="L14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="M14" s="3"/>
+      <c r="M14" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="5"/>
@@ -1538,7 +1541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35">
+    <row r="15" spans="1:35" hidden="1">
       <c r="A15" s="10">
         <v>2962</v>
       </c>
@@ -1575,7 +1578,9 @@
       <c r="L15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="M15" s="3"/>
+      <c r="M15" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="5"/>
@@ -1658,7 +1663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35">
+    <row r="17" spans="1:35" hidden="1">
       <c r="A17" s="10">
         <v>4309</v>
       </c>
@@ -1756,7 +1761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:35">
+    <row r="19" spans="1:35" hidden="1">
       <c r="A19" s="13" t="s">
         <v>22</v>
       </c>
@@ -1804,7 +1809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:35">
+    <row r="20" spans="1:35" hidden="1">
       <c r="A20" s="10">
         <v>1276</v>
       </c>
@@ -1837,7 +1842,9 @@
       <c r="L20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="M20" s="3"/>
+      <c r="M20" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="5"/>
@@ -1889,7 +1896,12 @@
   </sheetData>
   <autoFilter ref="A2:AI20">
     <filterColumn colId="11"/>
-    <filterColumn colId="34"/>
+    <filterColumn colId="12">
+      <filters blank="1"/>
+    </filterColumn>
+    <filterColumn colId="34">
+      <filters blank="1"/>
+    </filterColumn>
   </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:AI1"/>

--- a/Регистраторы/График проверки регистраторов в авто.xlsx
+++ b/Регистраторы/График проверки регистраторов в авто.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\___MyDocuments___\Регистраторы\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="330" windowWidth="19875" windowHeight="7710"/>
   </bookViews>
@@ -14,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$2:$AI$20</definedName>
   </definedNames>
-  <calcPr calcId="125725" iterate="1"/>
+  <calcPr calcId="162913" iterate="1"/>
 </workbook>
 </file>
 
@@ -141,11 +146,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,6 +283,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -324,7 +337,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -356,9 +369,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -390,6 +404,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -565,15 +580,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
@@ -582,7 +596,7 @@
     <col min="35" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="18.75">
+    <row r="1" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>33</v>
       </c>
@@ -621,7 +635,7 @@
       <c r="AH1" s="14"/>
       <c r="AI1" s="14"/>
     </row>
-    <row r="2" spans="1:35" ht="18.75">
+    <row r="2" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -658,7 +672,7 @@
       <c r="AH2" s="6"/>
       <c r="AI2" s="6"/>
     </row>
-    <row r="3" spans="1:35" s="4" customFormat="1" hidden="1">
+    <row r="3" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>26</v>
       </c>
@@ -765,7 +779,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:35" hidden="1">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>4711</v>
       </c>
@@ -873,7 +887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" hidden="1">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>4253</v>
       </c>
@@ -981,7 +995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" hidden="1">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>8933</v>
       </c>
@@ -1022,7 +1036,7 @@
         <v>34</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>34</v>
@@ -1086,10 +1100,10 @@
       </c>
       <c r="AI6" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>6172</v>
       </c>
@@ -1135,7 +1149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" hidden="1">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>4994</v>
       </c>
@@ -1183,7 +1197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:35" hidden="1">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>4995</v>
       </c>
@@ -1231,7 +1245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:35" hidden="1">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>6130</v>
       </c>
@@ -1279,7 +1293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:35" hidden="1">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>6129</v>
       </c>
@@ -1327,7 +1341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>2831</v>
       </c>
@@ -1373,7 +1387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" hidden="1">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>7945</v>
       </c>
@@ -1481,7 +1495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" hidden="1">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>2961</v>
       </c>
@@ -1541,7 +1555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" hidden="1">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>2962</v>
       </c>
@@ -1607,7 +1621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>2963</v>
       </c>
@@ -1663,7 +1677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" hidden="1">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>4309</v>
       </c>
@@ -1713,7 +1727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:35">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>21</v>
       </c>
@@ -1761,7 +1775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:35" hidden="1">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>22</v>
       </c>
@@ -1809,7 +1823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:35" hidden="1">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>1276</v>
       </c>
@@ -1871,7 +1885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="D22" s="4" t="s">
         <v>27</v>
       </c>
@@ -1882,7 +1896,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:35">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="D23" s="4" t="s">
         <v>28</v>
       </c>
@@ -1894,15 +1908,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AI20">
-    <filterColumn colId="11"/>
-    <filterColumn colId="12">
-      <filters blank="1"/>
-    </filterColumn>
-    <filterColumn colId="34">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:AI20"/>
   <mergeCells count="1">
     <mergeCell ref="A1:AI1"/>
   </mergeCells>
@@ -1912,24 +1918,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
